--- a/storage/exports/PEDIDOS.xlsx
+++ b/storage/exports/PEDIDOS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Empresa</t>
   </si>
@@ -149,7 +149,7 @@
     <t>COT</t>
   </si>
   <si>
-    <t>2018-10-27</t>
+    <t>2018-11-12</t>
   </si>
   <si>
     <t>COTIZACIÓN</t>
@@ -164,22 +164,58 @@
     <t>1</t>
   </si>
   <si>
-    <t>2018-10-31</t>
+    <t>2018-11-16</t>
+  </si>
+  <si>
+    <t>Disenio 2</t>
+  </si>
+  <si>
+    <t>25364</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Und.</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
+  </si>
+  <si>
+    <t>m²</t>
+  </si>
+  <si>
+    <t>Fijo K3</t>
+  </si>
+  <si>
+    <t>Puerta K3</t>
+  </si>
+  <si>
+    <t>Disenio 3</t>
+  </si>
+  <si>
+    <t>24634</t>
+  </si>
+  <si>
+    <t>Fijo DIALAN</t>
+  </si>
+  <si>
+    <t>Puerta DIALAN</t>
   </si>
   <si>
     <t>Disenio 1</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Und.</t>
-  </si>
-  <si>
-    <t>0.19</t>
+    <t>86473</t>
+  </si>
+  <si>
+    <t>Fijo BATIENTE NORMAL CHAFLAN</t>
+  </si>
+  <si>
+    <t>Puerta BATIENTE NORMAL CHAFLAN</t>
   </si>
 </sst>
 </file>
@@ -519,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +596,7 @@
     <col min="31" max="31" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="32" max="32" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="35" max="35" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="36" max="36" width="5.855713" bestFit="true" customWidth="true" style="0"/>
     <col min="37" max="37" width="16.424561" bestFit="true" customWidth="true" style="0"/>
@@ -710,10 +746,10 @@
         <v>44</v>
       </c>
       <c r="F2">
-        <v>493955</v>
+        <v>1144030406</v>
       </c>
       <c r="H2">
-        <v>493955</v>
+        <v>12353717</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
@@ -731,13 +767,13 @@
         <v>3</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s">
         <v>49</v>
@@ -758,13 +794,16 @@
         <v>53</v>
       </c>
       <c r="AF2">
-        <v>405336.1344537815</v>
+        <v>418193.2773109244</v>
       </c>
       <c r="AG2" t="s">
         <v>54</v>
       </c>
       <c r="AI2" t="s">
         <v>44</v>
+      </c>
+      <c r="AJ2">
+        <v>10</v>
       </c>
       <c r="AK2" t="s">
         <v>46</v>
@@ -790,10 +829,10 @@
         <v>44</v>
       </c>
       <c r="F3">
-        <v>493955</v>
+        <v>1144030406</v>
       </c>
       <c r="H3">
-        <v>493955</v>
+        <v>12353717</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
@@ -804,45 +843,33 @@
       <c r="K3" t="s">
         <v>47</v>
       </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
       <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>5</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" t="s">
-        <v>50</v>
-      </c>
       <c r="AB3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" t="s">
-        <v>48</v>
+      <c r="AD3">
+        <v>10000</v>
       </c>
       <c r="AE3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF3">
-        <v>405336.1344537815</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s">
         <v>54</v>
       </c>
+      <c r="AH3" t="s">
+        <v>57</v>
+      </c>
       <c r="AI3" t="s">
         <v>44</v>
       </c>
@@ -856,6 +883,509 @@
         <v>48</v>
       </c>
       <c r="AP3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <v>1144030406</v>
+      </c>
+      <c r="H4">
+        <v>12353717</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4">
+        <v>140</v>
+      </c>
+      <c r="N4">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4">
+        <v>6300</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>1144030406</v>
+      </c>
+      <c r="H5">
+        <v>12353717</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5">
+        <v>418193.2773109244</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6">
+        <v>1144030406</v>
+      </c>
+      <c r="H6">
+        <v>12353717</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6">
+        <v>200</v>
+      </c>
+      <c r="N6">
+        <v>250</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6">
+        <v>50000</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>1144030406</v>
+      </c>
+      <c r="H7">
+        <v>12353717</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7">
+        <v>240</v>
+      </c>
+      <c r="N7">
+        <v>240</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7">
+        <v>57600</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>1144030406</v>
+      </c>
+      <c r="H8">
+        <v>12353717</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8">
+        <v>418193.2773109244</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ8">
+        <v>5</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>1144030406</v>
+      </c>
+      <c r="H9">
+        <v>12353717</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9">
+        <v>-288</v>
+      </c>
+      <c r="N9">
+        <v>500</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9">
+        <v>-144000</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>1144030406</v>
+      </c>
+      <c r="H10">
+        <v>12353717</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>888</v>
+      </c>
+      <c r="N10">
+        <v>495</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD10">
+        <v>439560</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP10" t="s">
         <v>46</v>
       </c>
     </row>

--- a/storage/exports/PEDIDOS.xlsx
+++ b/storage/exports/PEDIDOS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Empresa</t>
   </si>
@@ -194,6 +194,18 @@
     <t>Puerta K3</t>
   </si>
   <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>4444</t>
+  </si>
+  <si>
     <t>Disenio 3</t>
   </si>
   <si>
@@ -204,6 +216,12 @@
   </si>
   <si>
     <t>Puerta DIALAN</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>6666</t>
   </si>
   <si>
     <t>Disenio 1</t>
@@ -555,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,41 +997,20 @@
       <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5">
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>49</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="AB5" t="s">
         <v>59</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>60</v>
       </c>
       <c r="AC5" t="s">
         <v>52</v>
       </c>
-      <c r="AD5" t="s">
-        <v>48</v>
+      <c r="AD5">
+        <v>1</v>
       </c>
       <c r="AE5" t="s">
         <v>53</v>
-      </c>
-      <c r="AF5">
-        <v>418193.2773109244</v>
       </c>
       <c r="AG5" t="s">
         <v>54</v>
@@ -1059,32 +1056,23 @@
       <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="M6">
-        <v>200</v>
-      </c>
-      <c r="N6">
-        <v>250</v>
-      </c>
-      <c r="O6" t="s">
-        <v>48</v>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="AB6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="s">
         <v>52</v>
       </c>
       <c r="AD6">
-        <v>50000</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AG6" t="s">
         <v>54</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>61</v>
       </c>
       <c r="AI6" t="s">
         <v>44</v>
@@ -1127,32 +1115,23 @@
       <c r="K7" t="s">
         <v>47</v>
       </c>
-      <c r="M7">
-        <v>240</v>
-      </c>
-      <c r="N7">
-        <v>240</v>
-      </c>
-      <c r="O7" t="s">
-        <v>48</v>
+      <c r="O7">
+        <v>2</v>
       </c>
       <c r="AB7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC7" t="s">
         <v>52</v>
       </c>
       <c r="AD7">
-        <v>57600</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AG7" t="s">
         <v>54</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>62</v>
       </c>
       <c r="AI7" t="s">
         <v>44</v>
@@ -1195,50 +1174,26 @@
       <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="O8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8">
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" t="s">
-        <v>63</v>
-      </c>
       <c r="AB8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC8" t="s">
         <v>52</v>
       </c>
-      <c r="AD8" t="s">
-        <v>48</v>
+      <c r="AD8">
+        <v>3</v>
       </c>
       <c r="AE8" t="s">
         <v>53</v>
       </c>
-      <c r="AF8">
-        <v>418193.2773109244</v>
-      </c>
       <c r="AG8" t="s">
         <v>54</v>
       </c>
       <c r="AI8" t="s">
         <v>44</v>
-      </c>
-      <c r="AJ8">
-        <v>5</v>
       </c>
       <c r="AK8" t="s">
         <v>46</v>
@@ -1278,32 +1233,44 @@
       <c r="K9" t="s">
         <v>47</v>
       </c>
-      <c r="M9">
-        <v>-288</v>
-      </c>
-      <c r="N9">
-        <v>500</v>
-      </c>
       <c r="O9" t="s">
         <v>48</v>
       </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>63</v>
+      </c>
       <c r="AB9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AC9" t="s">
         <v>52</v>
       </c>
-      <c r="AD9">
-        <v>-144000</v>
+      <c r="AD9" t="s">
+        <v>48</v>
       </c>
       <c r="AE9" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="AF9">
+        <v>418193.2773109244</v>
       </c>
       <c r="AG9" t="s">
         <v>54</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>65</v>
       </c>
       <c r="AI9" t="s">
         <v>44</v>
@@ -1347,10 +1314,10 @@
         <v>47</v>
       </c>
       <c r="M10">
-        <v>888</v>
+        <v>200</v>
       </c>
       <c r="N10">
-        <v>495</v>
+        <v>250</v>
       </c>
       <c r="O10" t="s">
         <v>48</v>
@@ -1362,7 +1329,7 @@
         <v>52</v>
       </c>
       <c r="AD10">
-        <v>439560</v>
+        <v>50000</v>
       </c>
       <c r="AE10" t="s">
         <v>56</v>
@@ -1371,21 +1338,426 @@
         <v>54</v>
       </c>
       <c r="AH10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>1144030406</v>
+      </c>
+      <c r="H11">
+        <v>12353717</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11">
+        <v>240</v>
+      </c>
+      <c r="N11">
+        <v>240</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD11">
+        <v>57600</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH11" t="s">
         <v>66</v>
       </c>
-      <c r="AI10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP10" t="s">
+      <c r="AI11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <v>1144030406</v>
+      </c>
+      <c r="H12">
+        <v>12353717</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>1144030406</v>
+      </c>
+      <c r="H13">
+        <v>12353717</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>1144030406</v>
+      </c>
+      <c r="H14">
+        <v>12353717</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>49</v>
+      </c>
+      <c r="U14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF14">
+        <v>418193.2773109244</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ14">
+        <v>5</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>1144030406</v>
+      </c>
+      <c r="H15">
+        <v>12353717</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15">
+        <v>-288</v>
+      </c>
+      <c r="N15">
+        <v>500</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD15">
+        <v>-144000</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>1144030406</v>
+      </c>
+      <c r="H16">
+        <v>12353717</v>
+      </c>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16">
+        <v>888</v>
+      </c>
+      <c r="N16">
+        <v>495</v>
+      </c>
+      <c r="O16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD16">
+        <v>439560</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP16" t="s">
         <v>46</v>
       </c>
     </row>
